--- a/hálózat tervezése egy iskolába/Csoportfeladat_javitott_valtozat.xlsx
+++ b/hálózat tervezése egy iskolába/Csoportfeladat_javitott_valtozat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\hálózat tervezése egy iskolába\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FDF199-466E-486F-9A0F-924E3B09F41E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1799FC24-266F-4DAA-B7DC-4508EAAA4A56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" activeTab="2" xr2:uid="{E51C6D9A-76A3-4AEE-B431-B5207768F6BE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" firstSheet="1" activeTab="2" xr2:uid="{E51C6D9A-76A3-4AEE-B431-B5207768F6BE}"/>
   </bookViews>
   <sheets>
     <sheet name="hálózat tervezése egy terembe" sheetId="1" r:id="rId1"/>
@@ -77,9 +77,6 @@
     <t>2 terem dupla kábel</t>
   </si>
   <si>
-    <t>az eredményt ,1,1 szorozd</t>
-  </si>
-  <si>
     <t xml:space="preserve">Anyagköltség számítás: </t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>490.710</t>
   </si>
   <si>
-    <t>560.000</t>
-  </si>
-  <si>
     <t>754.100</t>
   </si>
   <si>
@@ -141,6 +135,12 @@
   </si>
   <si>
     <t>1.099.000</t>
+  </si>
+  <si>
+    <t>az eredményt ,1,1 szorozd:</t>
+  </si>
+  <si>
+    <t>733.620</t>
   </si>
 </sst>
 </file>
@@ -408,6 +408,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -423,11 +428,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -1119,10 +1119,10 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="1"/>
@@ -1140,10 +1140,10 @@
       <c r="G5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="23"/>
+      <c r="I5" s="26"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
@@ -1216,10 +1216,10 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="21"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="10"/>
       <c r="G9" s="1" t="s">
         <v>9</v>
@@ -1239,10 +1239,10 @@
       <c r="L10" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="22"/>
+      <c r="M10" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="25"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
@@ -1261,10 +1261,10 @@
         <v>10</v>
       </c>
       <c r="G11" s="17"/>
-      <c r="M11" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="22"/>
+      <c r="M11" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="25"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12">
@@ -1307,8 +1307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D21E38-69AA-4AB7-B92A-BD3F61D8BD07}">
   <dimension ref="B1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,164 +1317,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="25"/>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="27"/>
       <c r="D2">
         <v>896</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="E2" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="27"/>
       <c r="D3">
         <v>274</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="E3" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
       <c r="H3">
         <f>SUM(Q4:Q8)</f>
-        <v>13225410</v>
+        <v>13399030</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="27"/>
       <c r="D4">
         <v>448</v>
       </c>
-      <c r="F4" t="s">
-        <v>18</v>
+      <c r="F4" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="27">
-        <v>85900</v>
+        <v>25</v>
+      </c>
+      <c r="N4" s="22">
+        <v>122270</v>
       </c>
       <c r="O4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q4" s="19">
-        <v>560000</v>
+        <v>733620</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D5" s="26">
+      <c r="D5" s="21">
         <f>SUM(D2:D3,D4)</f>
         <v>1618</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>19</v>
+      <c r="F5" s="23" t="s">
+        <v>18</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="22">
+        <v>44610</v>
+      </c>
+      <c r="O5" t="s">
         <v>26</v>
-      </c>
-      <c r="N5" s="27">
-        <v>44610</v>
-      </c>
-      <c r="O5" t="s">
-        <v>27</v>
       </c>
       <c r="Q5" s="19">
         <v>490710</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F6" s="28" t="s">
-        <v>20</v>
+      <c r="F6" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="H6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="I6" t="s">
+      <c r="O6" t="s">
         <v>26</v>
-      </c>
-      <c r="N6" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" t="s">
-        <v>27</v>
       </c>
       <c r="Q6" s="19">
         <v>754100</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F7" s="28" t="s">
-        <v>21</v>
+      <c r="F7" s="23" t="s">
+        <v>20</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="22">
+        <v>109900</v>
+      </c>
+      <c r="O7" t="s">
         <v>26</v>
-      </c>
-      <c r="N7" s="27">
-        <v>109900</v>
-      </c>
-      <c r="O7" t="s">
-        <v>27</v>
       </c>
       <c r="Q7" s="19">
         <v>1099000</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F8" s="28" t="s">
-        <v>22</v>
+      <c r="F8" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="22">
+        <v>64510</v>
+      </c>
+      <c r="O8" t="s">
         <v>26</v>
-      </c>
-      <c r="N8" s="27">
-        <v>64510</v>
-      </c>
-      <c r="O8" t="s">
-        <v>27</v>
       </c>
       <c r="Q8" s="19">
         <v>10321600</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1499,8 +1499,9 @@
     <hyperlink ref="F8" r:id="rId2" xr:uid="{779D29A9-2B6F-4887-AED2-4D44651F4AED}"/>
     <hyperlink ref="F7" r:id="rId3" xr:uid="{0FB2335E-6631-4722-BABE-EEBC0DE17D57}"/>
     <hyperlink ref="F5" r:id="rId4" xr:uid="{5C27ADD6-2458-4A2C-9359-892AF3137B14}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{F5CF4339-4B58-416A-A41D-D086CCD48D5A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>